--- a/branches/clean4b/StructureDefinition-DT.xlsx
+++ b/branches/clean4b/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T13:37:56+00:00</t>
+    <t>2022-11-20T14:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/clean4b/StructureDefinition-DT.xlsx
+++ b/branches/clean4b/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T14:32:03+00:00</t>
+    <t>2022-11-22T13:49:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/clean4b/StructureDefinition-DT.xlsx
+++ b/branches/clean4b/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:49:32+00:00</t>
+    <t>2022-11-22T14:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
